--- a/Parcel-Test-Features/Custom-Template-Asthetic/bin/Test_Data/Templates_Feature.xlsx
+++ b/Parcel-Test-Features/Custom-Template-Asthetic/bin/Test_Data/Templates_Feature.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="Template Information" sheetId="2" r:id="rId2"/>
+    <sheet name="Template Setup" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -43,10 +44,34 @@
     <t>Rename Template</t>
   </si>
   <si>
-    <t>Test Template</t>
-  </si>
-  <si>
-    <t>Test Template001</t>
+    <t>Shortname Template</t>
+  </si>
+  <si>
+    <t>Company Id in which template will be move</t>
+  </si>
+  <si>
+    <t>Default Language Library ID</t>
+  </si>
+  <si>
+    <t>Report Setup ID</t>
+  </si>
+  <si>
+    <t>TOC Setup ID</t>
+  </si>
+  <si>
+    <t>Transmittal Letter ID</t>
+  </si>
+  <si>
+    <t>Cover Page ID</t>
+  </si>
+  <si>
+    <t>001Test</t>
+  </si>
+  <si>
+    <t>001Test Template</t>
+  </si>
+  <si>
+    <t>001Template</t>
   </si>
 </sst>
 </file>
@@ -90,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -99,6 +124,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,9 +458,11 @@
     <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -438,19 +472,97 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1218</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3963</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="12" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1520</v>
+      </c>
+      <c r="B2" s="6">
+        <v>64</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>226</v>
+      </c>
+      <c r="E2" s="6">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Parcel-Test-Features/Custom-Template-Asthetic/bin/Test_Data/Templates_Feature.xlsx
+++ b/Parcel-Test-Features/Custom-Template-Asthetic/bin/Test_Data/Templates_Feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +561,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
